--- a/HW/ДЗ1.xlsx
+++ b/HW/ДЗ1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GB\Analyst\AB_test\HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5DDA55-6591-4A8A-B2CD-E90900D24B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6BD46A-C75C-4AB3-AE8F-DB4FC4340506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555E8F77-462F-42B6-BB98-4B7DCA0CB697}"/>
   </bookViews>
@@ -25,24 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>112.5</t>
-  </si>
-  <si>
-    <t>Если разместить на сайте кроме фабричных каталогов набор стандартных мебельных решений для нестандартных помещений это увеличит выручку на 10% так как мы привлечем дополнительных клиентов, которые увидят у нас готовое решение своей проблемы.</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>Если добавить вверху страницы поиск по ключевым словам, то это уменьшит процент отказов на 15% , так как у 
-пользователя появиться возможность сразу найти то, что его интересует.</t>
-  </si>
-  <si>
-    <t>Если добавить предложение на другие категории мебели (гардеробы, шкафыб мебель для ванны) то это увеличит 
-глубину просмотра на 20% так как многим клиентам удобнее купить всю мебель у одного поставщика.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Домашнее задание 2.</t>
   </si>
@@ -53,9 +36,6 @@
     <t>1. Если убрать из форме заявки на просчет обязательные поля "фамилия",  "модель кухни" , то количество заявок от новых пользователей увеличится на 10%, потому что заполнить форму будет проще.</t>
   </si>
   <si>
-    <t>Если предлагать клиенту, который совершил конверсию в просчет,  дополнительную скидку, зависящую от суммы покупки, то это увеличит средний чек на 5% так как пользователю будет выгоднее совершить более дорогую покупку.</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -72,13 +52,60 @@
   </si>
   <si>
     <t>priority</t>
+  </si>
+  <si>
+    <t>2. Если предлагать клиенту, который совершил конверсию в просчет,  дополнительную скидку, зависящую от суммы покупки, то это увеличит средний чек на 5% так как пользователю будет выгоднее совершить более дорогую покупку.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Если разместить на сайте кроме фабричных каталогов набор стандартных мебельных решений для нестандартных помещений это увеличит выручку на 10% так как мы привлечем дополнительных новых пользователей, которые увидят у нас готовое решение своей проблемы. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Если добавить вверху страницы поиск по ключевым словам, то это уменьшит процент отказов новых пользователей на 15% , так как у пользователя появиться возможность сразу найти то, что его интересует. </t>
+  </si>
+  <si>
+    <t>5. Если добавить предложение на другие категории мебели (гардеробы, шкафыб мебель для ванны) то это увеличит 
+глубину просмотра на 20% так как многим клиентам удобнее купить всю мебель у одного поставщика. Нужно расмматривать всех пользователей.</t>
+  </si>
+  <si>
+    <t>Задание 2. 
+Составьте шаблон дизайна эксперимента для гипотезы, которая набрала больше всего баллов в практическом задании предыдущего урока</t>
+  </si>
+  <si>
+    <t>Шаблог гипотезы:</t>
+  </si>
+  <si>
+    <t>Гипотеза:</t>
+  </si>
+  <si>
+    <t>Что делаем в каждой из групп:</t>
+  </si>
+  <si>
+    <t>На каких пользователях тестируем:</t>
+  </si>
+  <si>
+    <t>Метрики:</t>
+  </si>
+  <si>
+    <t>В первой группе оставляет как есть, отдельно стоимость кухни, отдельно стоимость сборки, подключения техники и расходные материалы. Второй группе объявляем цену под ключ.</t>
+  </si>
+  <si>
+    <t>6. Если учесть стоимость сборки мебели в стоимости покупки, то это увеличит конверсию в покупку для пользователей, которые прошли конверсию в просчет мебели,  на 2%, так как люди не любят дополнительных расходов, а предпочитают знать цену "под ключ".</t>
+  </si>
+  <si>
+    <t>Конверсия из просчет в покупку</t>
+  </si>
+  <si>
+    <t>Для пользователей, которые прошли конверсию в просчет мебели</t>
+  </si>
+  <si>
+    <t>Если учесть стоимость сборки мебели в стоимости покупки, то это увеличит конверсию в покупку на 2%, так как люди не любят дополнительных расходов, а предпочитают знать цену "под ключ".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +147,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF2C2D30"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -135,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -145,106 +181,286 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -252,19 +468,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -272,37 +481,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,156 +873,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CCFD89-646C-4EEB-9997-94813EE0CE32}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="70" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="14" customWidth="1"/>
+    <col min="4" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11">
+        <v>6</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="11">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12">
+        <f>B6*C6*D6</f>
+        <v>90</v>
+      </c>
+      <c r="F6" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" ref="E7:E11" si="0">B7*C7*D7</f>
+        <v>52.5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="87" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="87" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="87.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>10</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="87.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>135</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="87.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="105" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="7">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11">
-        <v>45053</v>
-      </c>
-      <c r="F8" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="87.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9">
-        <v>180</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="105" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="12">
+    <row r="16" spans="1:6" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14">
-        <v>45025</v>
-      </c>
-      <c r="F10" s="15">
-        <v>4</v>
-      </c>
+      <c r="B17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>